--- a/项目管理/计划管理/VFlow项目执行计划-v1.0.xlsx
+++ b/项目管理/计划管理/VFlow项目执行计划-v1.0.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,11 +344,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>微信支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础配置添加沙箱开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载对账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定日期对账单，并保存至本地，分页，按日期可查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对账单中的订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置用户备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注、取消关注更新状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>微信公众号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信支付</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1571,7 +1611,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1663,55 +1703,93 @@
       <c r="A5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="C5" s="12">
-        <v>43133</v>
-      </c>
-      <c r="D5" s="11"/>
+        <v>43129</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43131</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43131</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43133</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43133</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43133</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>

--- a/项目管理/计划管理/VFlow项目执行计划-v1.0.xlsx
+++ b/项目管理/计划管理/VFlow项目执行计划-v1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="整体规划" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,15 +344,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>微信支付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础配置添加沙箱开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载对账单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定日期对账单，并保存至本地，分页，按日期可查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对账单中的订单详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置用户备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户状态更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注、取消关注更新状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>微信公众号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信支付</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +802,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -782,17 +818,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1"/>
-    <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.625" style="1"/>
+    <col min="2" max="2" width="13.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="33.4140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -809,7 +845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,7 +859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,7 +873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -851,7 +887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,7 +901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,7 +915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -893,7 +929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -907,7 +943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -921,7 +957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -935,7 +971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -976,17 +1012,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="5" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="5"/>
+    <col min="1" max="1" width="13.08203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="5"/>
     <col min="6" max="6" width="36" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="5"/>
+    <col min="7" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>34</v>
       </c>
@@ -1024,7 +1060,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="6" t="s">
         <v>36</v>
@@ -1040,7 +1076,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -1058,7 +1094,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="9" t="s">
         <v>30</v>
@@ -1074,7 +1110,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
@@ -1092,7 +1128,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="9" t="s">
         <v>33</v>
@@ -1108,7 +1144,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="9" t="s">
         <v>37</v>
@@ -1124,7 +1160,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="9" t="s">
         <v>38</v>
@@ -1140,7 +1176,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
@@ -1158,7 +1194,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
       <c r="B11" s="9" t="s">
         <v>41</v>
@@ -1174,7 +1210,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="9" t="s">
         <v>42</v>
@@ -1192,7 +1228,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
@@ -1210,7 +1246,7 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
@@ -1228,7 +1264,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="9" t="s">
         <v>71</v>
@@ -1242,7 +1278,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
@@ -1260,7 +1296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="11" t="s">
         <v>66</v>
@@ -1274,7 +1310,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
         <v>68</v>
@@ -1288,7 +1324,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="13" t="s">
         <v>69</v>
@@ -1302,7 +1338,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="13" t="s">
         <v>70</v>
@@ -1316,7 +1352,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
@@ -1332,7 +1368,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="9" t="s">
         <v>47</v>
@@ -1346,7 +1382,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="9" t="s">
         <v>48</v>
@@ -1360,7 +1396,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="9" t="s">
         <v>49</v>
@@ -1374,7 +1410,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="9" t="s">
         <v>50</v>
@@ -1388,7 +1424,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="9" t="s">
         <v>51</v>
@@ -1402,7 +1438,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="9" t="s">
         <v>52</v>
@@ -1416,7 +1452,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="9" t="s">
         <v>53</v>
@@ -1430,7 +1466,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1438,7 +1474,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1446,7 +1482,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1454,7 +1490,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1462,7 +1498,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1470,7 +1506,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1478,7 +1514,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1486,7 +1522,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1494,7 +1530,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1502,7 +1538,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1510,7 +1546,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1518,7 +1554,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1526,7 +1562,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1534,7 +1570,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1572,24 +1608,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="14.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="46.875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.625" style="5"/>
+    <col min="1" max="1" width="9.9140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.4140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="46.83203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1600,19 +1636,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
@@ -1622,16 +1655,15 @@
       <c r="C2" s="12">
         <v>43123</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>75</v>
       </c>
@@ -1641,16 +1673,15 @@
       <c r="C3" s="12">
         <v>43125</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>76</v>
       </c>
@@ -1660,245 +1691,257 @@
       <c r="C4" s="12">
         <v>43126</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="11" t="s">
+        <v>81</v>
+      </c>
       <c r="C5" s="12">
-        <v>43133</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>43129</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43131</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
+      <c r="F6" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43131</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43133</v>
+      </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43133</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43133</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1913,7 +1956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1928,7 +1971,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1943,29 +1986,29 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>57</v>
       </c>

--- a/项目管理/计划管理/VFlow项目执行计划-v1.0.xlsx
+++ b/项目管理/计划管理/VFlow项目执行计划-v1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="整体规划" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="图表服务" sheetId="5" r:id="rId6"/>
     <sheet name="基础数据" sheetId="6" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">图表服务!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="102">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +392,46 @@
   </si>
   <si>
     <t>微信公众号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echarts主题样式的保存，样式的切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张兆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表功能集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱状图集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做第一版需一起讨论一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼图，折线图，漏斗图，雷达图，地图，散点等集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表联动研究</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -517,6 +560,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,7 +860,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -818,17 +876,17 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="33.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,7 +917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,7 +931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,7 +945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -901,7 +959,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -915,7 +973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,7 +987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -943,7 +1001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -957,7 +1015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -971,7 +1029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1012,17 +1070,17 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="5" customWidth="1"/>
     <col min="4" max="5" width="8.6640625" style="5"/>
     <col min="6" max="6" width="36" style="5" customWidth="1"/>
     <col min="7" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>34</v>
       </c>
@@ -1060,7 +1118,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="6" t="s">
         <v>36</v>
@@ -1076,7 +1134,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1152,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="9" t="s">
         <v>30</v>
@@ -1110,7 +1168,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
@@ -1128,7 +1186,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="9" t="s">
         <v>33</v>
@@ -1144,7 +1202,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="9" t="s">
         <v>37</v>
@@ -1160,7 +1218,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="9" t="s">
         <v>38</v>
@@ -1176,7 +1234,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>39</v>
       </c>
@@ -1194,7 +1252,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="9" t="s">
         <v>41</v>
@@ -1210,7 +1268,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="9" t="s">
         <v>42</v>
@@ -1228,7 +1286,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
@@ -1246,7 +1304,7 @@
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
@@ -1264,7 +1322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="9" t="s">
         <v>71</v>
@@ -1278,7 +1336,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>61</v>
       </c>
@@ -1296,7 +1354,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="11" t="s">
         <v>66</v>
@@ -1310,7 +1368,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="11" t="s">
         <v>68</v>
@@ -1324,7 +1382,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="13" t="s">
         <v>69</v>
@@ -1338,7 +1396,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="13" t="s">
         <v>70</v>
@@ -1352,7 +1410,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>45</v>
       </c>
@@ -1368,7 +1426,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="9" t="s">
         <v>47</v>
@@ -1382,7 +1440,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="9" t="s">
         <v>48</v>
@@ -1396,7 +1454,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="9" t="s">
         <v>49</v>
@@ -1410,7 +1468,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="9" t="s">
         <v>50</v>
@@ -1424,7 +1482,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="9" t="s">
         <v>51</v>
@@ -1438,7 +1496,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="9" t="s">
         <v>52</v>
@@ -1452,7 +1510,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="9" t="s">
         <v>53</v>
@@ -1466,7 +1524,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1474,7 +1532,7 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -1482,7 +1540,7 @@
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1490,7 +1548,7 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -1498,7 +1556,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -1506,7 +1564,7 @@
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -1514,7 +1572,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -1522,7 +1580,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -1530,7 +1588,7 @@
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -1538,7 +1596,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1546,7 +1604,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -1554,7 +1612,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -1562,7 +1620,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -1570,7 +1628,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -1610,22 +1668,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.9140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.4140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="11" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="46.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="46.77734375" style="5" customWidth="1"/>
     <col min="7" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1645,7 +1703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>60</v>
       </c>
@@ -1663,7 +1721,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>75</v>
       </c>
@@ -1681,7 +1739,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>76</v>
       </c>
@@ -1699,7 +1757,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>80</v>
       </c>
@@ -1715,7 +1773,7 @@
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>80</v>
       </c>
@@ -1731,7 +1789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>80</v>
       </c>
@@ -1747,7 +1805,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>91</v>
       </c>
@@ -1761,7 +1819,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>91</v>
       </c>
@@ -1775,7 +1833,7 @@
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>91</v>
       </c>
@@ -1791,7 +1849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1799,7 +1857,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1807,7 +1865,7 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1815,7 +1873,7 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1823,7 +1881,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1831,7 +1889,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1839,7 +1897,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1847,7 +1905,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1855,7 +1913,7 @@
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1863,7 +1921,7 @@
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1871,7 +1929,7 @@
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1879,7 +1937,7 @@
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -1887,7 +1945,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -1895,7 +1953,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -1903,7 +1961,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1911,7 +1969,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -1919,7 +1977,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -1927,7 +1985,7 @@
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1935,7 +1993,7 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -1956,7 +2014,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1965,14 +2023,115 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="20">
+        <v>43173</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="20">
+        <v>43177</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="20">
+        <v>43187</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="20">
+        <v>43190</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="19"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1986,29 +2145,29 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>57</v>
       </c>

--- a/项目管理/计划管理/VFlow项目执行计划-v1.0.xlsx
+++ b/项目管理/计划管理/VFlow项目执行计划-v1.0.xlsx
@@ -16,7 +16,7 @@
     <sheet name="基础数据" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">图表服务!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">图表服务!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,31 +407,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>报表功能集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱状图集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做第一版需一起讨论一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表管理中心页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表功能集成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柱状图集成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>做第一版需一起讨论一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饼图，折线图，漏斗图，雷达图，地图，散点等集成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图表联动研究</t>
+    <t>饼图集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散点图集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折线图集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗图集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仪表盘集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵树图集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql逻辑优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,15 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,6 +594,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1101,7 +1129,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1119,7 +1147,7 @@
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
@@ -1135,7 +1163,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -1153,7 +1181,7 @@
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1169,7 +1197,7 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1187,7 +1215,7 @@
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
@@ -1203,7 +1231,7 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
@@ -1219,7 +1247,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
@@ -1235,7 +1263,7 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1253,7 +1281,7 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="9" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1297,7 @@
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="9" t="s">
         <v>42</v>
       </c>
@@ -1305,7 +1333,7 @@
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="18" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1323,7 +1351,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="9" t="s">
         <v>71</v>
       </c>
@@ -1337,7 +1365,7 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -1355,7 +1383,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="11" t="s">
         <v>66</v>
       </c>
@@ -1369,7 +1397,7 @@
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="11" t="s">
         <v>68</v>
       </c>
@@ -1383,7 +1411,7 @@
       <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="13" t="s">
         <v>69</v>
       </c>
@@ -1397,7 +1425,7 @@
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="13" t="s">
         <v>70</v>
       </c>
@@ -1411,7 +1439,7 @@
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -1427,7 +1455,7 @@
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="9" t="s">
         <v>47</v>
       </c>
@@ -1441,7 +1469,7 @@
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="9" t="s">
         <v>48</v>
       </c>
@@ -1455,7 +1483,7 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
@@ -1469,7 +1497,7 @@
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="9" t="s">
         <v>50</v>
       </c>
@@ -1483,7 +1511,7 @@
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="9" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +1525,7 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
@@ -1511,7 +1539,7 @@
       <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="9" t="s">
         <v>53</v>
       </c>
@@ -2023,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2034,10 +2062,11 @@
     <col min="1" max="1" width="17.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -2048,92 +2077,196 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>43173</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17">
+        <v>43172</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="C3" s="17">
+        <v>43177</v>
+      </c>
+      <c r="D3" s="17">
+        <v>43179</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="17">
+        <v>43180</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="17">
+        <v>43181</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="20">
-        <v>43177</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43182</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="20">
-        <v>43187</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="F6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43183</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="20">
-        <v>43190</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="F7" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="17">
+        <v>43185</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="19"/>
+      <c r="F8" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="17">
+        <v>43186</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="17">
+        <v>43188</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="17">
+        <v>43194</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:G1"/>
   <mergeCells count="1">
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A3:A11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/项目管理/计划管理/VFlow项目执行计划-v1.0.xlsx
+++ b/项目管理/计划管理/VFlow项目执行计划-v1.0.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9326FD9B-1BD8-41B4-BD7F-F1F30F2165A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整体规划" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="109">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,10 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>做第一版需一起讨论一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -431,10 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>饼图集成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,13 +453,21 @@
   </si>
   <si>
     <t>sql逻辑优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表初版部署</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -600,9 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -883,7 +881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -897,7 +895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1078,7 +1076,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>基础数据!$B$3:$B$6</xm:f>
           </x14:formula1>
@@ -1091,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1680,7 +1678,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>基础数据!$B$3:$B$7</xm:f>
           </x14:formula1>
@@ -1693,7 +1691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2037,7 +2035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2050,11 +2048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -2111,7 +2109,7 @@
       <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -2130,13 +2128,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="17">
         <v>43180</v>
@@ -2146,14 +2144,14 @@
         <v>94</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="16"/>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" s="17">
         <v>43181</v>
@@ -2163,14 +2161,14 @@
         <v>94</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="17">
         <v>43182</v>
@@ -2180,14 +2178,14 @@
         <v>94</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="16"/>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="17">
         <v>43183</v>
@@ -2196,13 +2194,13 @@
         <v>94</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="16"/>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="17">
         <v>43185</v>
@@ -2211,13 +2209,13 @@
         <v>94</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="17">
         <v>43186</v>
@@ -2226,13 +2224,13 @@
         <v>94</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="17">
         <v>43188</v>
@@ -2241,13 +2239,13 @@
         <v>94</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="16"/>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" s="17">
         <v>43194</v>
@@ -2259,11 +2257,36 @@
         <v>17</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="17">
+        <v>43194</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="17">
+        <v>43194</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A11"/>
-  </mergeCells>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2271,7 +2294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
